--- a/Data/Temp/Yearly-Report-2021-RO345879.xlsx
+++ b/Data/Temp/Yearly-Report-2021-RO345879.xlsx
@@ -70,6 +70,27 @@
     <x:t>44559.6</x:t>
   </x:si>
   <x:si>
+    <x:t>290611</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beverages and Catering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3431.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20590.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
     <x:t>109566</x:t>
   </x:si>
   <x:si>
@@ -94,9 +115,6 @@
     <x:t>463540</x:t>
   </x:si>
   <x:si>
-    <x:t>Beverages and Catering</x:t>
-  </x:si>
-  <x:si>
     <x:t>2017-09-27</x:t>
   </x:si>
   <x:si>
@@ -107,24 +125,6 @@
   </x:si>
   <x:si>
     <x:t>163831</x:t>
-  </x:si>
-  <x:si>
-    <x:t>290611</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3431.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20590.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
   </x:si>
   <x:si>
     <x:t>819413</x:t>
@@ -611,76 +611,76 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
